--- a/biology/Zoologie/Enchelycore_pardalis/Enchelycore_pardalis.xlsx
+++ b/biology/Zoologie/Enchelycore_pardalis/Enchelycore_pardalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enchelycore pardalis
- Enchelycore pardalis, communément nommé Murène dragon[2], est une espèce de poissons marins de la famille des Muraenidae.
+ Enchelycore pardalis, communément nommé Murène dragon, est une espèce de poissons marins de la famille des Muraenidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette murène est reconnaissable aux petites cornes qui ornent son museau.
-Elle peut atteindre une taille de 92 cm de long[3].
+Elle peut atteindre une taille de 92 cm de long.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La murène dragon est présente dans les eaux tropicales de la région Indo-Pacifique, soit de l'archipel des Mascareignes à Hawaii en passant les îles de la Société[4]. Elle est commune dans les eaux tempérées chaudes du sud du Japon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La murène dragon est présente dans les eaux tropicales de la région Indo-Pacifique, soit de l'archipel des Mascareignes à Hawaii en passant les îles de la Société. Elle est commune dans les eaux tempérées chaudes du sud du Japon.
 			Tête
 			Cornes
 			Bouche
